--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_last_rep_since_2021/ifoCAst_error_tables_last_rep_latest_since_2021_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_last_rep_since_2021/ifoCAst_error_tables_last_rep_latest_since_2021_GVA.xlsx
@@ -423,22 +423,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.06192004997117951</v>
+        <v>0.07007951928338062</v>
       </c>
       <c r="C2">
-        <v>0.7584886258991402</v>
+        <v>0.7205358658215948</v>
       </c>
       <c r="D2">
-        <v>0.7897493916532944</v>
+        <v>0.7411812092429714</v>
       </c>
       <c r="E2">
-        <v>0.8886784523399306</v>
+        <v>0.8609188168712375</v>
       </c>
       <c r="F2">
-        <v>0.9138024979482247</v>
+        <v>0.88293831854245</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
